--- a/顾客订单导入模板.xlsx
+++ b/顾客订单导入模板.xlsx
@@ -1,71 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\tp6\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7084949D-595D-4FD4-B2DC-90522F7C0FBD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{5493ABC7-0D19-4D99-998B-B8ADC6E77663}"/>
+    <workbookView windowWidth="23745" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>\</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>订单编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编号</t>
   </si>
   <si>
     <t>顾客编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>创建日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>渠道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>单价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>销售员编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>OD20181200015</t>
   </si>
   <si>
+    <t>PD201820005</t>
+  </si>
+  <si>
     <t>CT0200001</t>
   </si>
   <si>
@@ -76,57 +62,194 @@
   </si>
   <si>
     <t>样例，信息录入完成后请删除该列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ \ hh:mm"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +268,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -155,32 +464,274 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -188,9 +739,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -203,36 +751,83 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -281,7 +876,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -314,26 +909,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -366,23 +944,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,338 +1085,358 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD65029-A80E-466D-A4E5-93650B2E84F9}">
-  <dimension ref="A1:O23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="19.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="8.88333333333333" style="3"/>
+    <col min="2" max="3" width="19.3333333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.3333333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.2166666666667" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.44166666666667" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.10833333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.4416666666667" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.88333333333333" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:16">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8">
+        <v>43441.4319444444</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7">
+        <v>300</v>
+      </c>
+      <c r="H2" s="7">
+        <v>10.99</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9">
-        <v>43441.431944444441</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="8">
-        <v>300</v>
-      </c>
-      <c r="G2" s="8">
-        <v>10.99</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="8">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
+      <c r="K2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="K2:P2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>